--- a/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6168</v>
+        <v>6281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004888659448315907</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01652774665776443</v>
+        <v>0.01683144151788416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9576</v>
+        <v>8294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005481968640624509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001525079829840814</v>
+        <v>0.001518395102199637</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01629185459904219</v>
+        <v>0.01411154663171947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1888</v>
+        <v>1728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12267</v>
+        <v>10918</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005251551744548905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001964332120536985</v>
+        <v>0.001798428988198164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01276612396531956</v>
+        <v>0.01136181155294818</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3486</v>
+        <v>3524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13146</v>
+        <v>13672</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01951827435638743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009341369603687869</v>
+        <v>0.009442172589704074</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03522664573425575</v>
+        <v>0.03663510432428544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>7782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3353</v>
+        <v>3303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15534</v>
+        <v>14628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01324107919422568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005704075592614591</v>
+        <v>0.00561919928251163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02642952697326153</v>
+        <v>0.02488851324080236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>15066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8755</v>
+        <v>8877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24018</v>
+        <v>24347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01567888370505448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009111027506903988</v>
+        <v>0.009238081346861441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02499465286065618</v>
+        <v>0.0253366080442067</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>364081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>357566</v>
+        <v>356831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>368639</v>
+        <v>368557</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9755930661952966</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9581355372863619</v>
+        <v>0.9561679091079509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9878074949892279</v>
+        <v>0.9875888186784337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>563</v>
@@ -907,19 +907,19 @@
         <v>576745</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>568073</v>
+        <v>568398</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>582173</v>
+        <v>582299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9812769521651498</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9665234569748176</v>
+        <v>0.9670752879830454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.990513300103823</v>
+        <v>0.9907280161551503</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>952</v>
@@ -928,19 +928,19 @@
         <v>940825</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>931145</v>
+        <v>930740</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>948205</v>
+        <v>948661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9790695645503966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.968996133992974</v>
+        <v>0.9685749470174041</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9867499125566123</v>
+        <v>0.9872239288578878</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>87273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88083</v>
@@ -1175,7 +1175,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>60157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>62212</v>
@@ -1196,7 +1196,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         <v>147431</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6229</v>
+        <v>6459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003630880060061497</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01239688647375595</v>
+        <v>0.01285508020912717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1549,19 +1549,19 @@
         <v>4363</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1570,19 +1570,19 @@
         <v>6188</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2315</v>
+        <v>2272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13507</v>
+        <v>12712</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005246722323954361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001962988289154578</v>
+        <v>0.001926693993247964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01145369360312125</v>
+        <v>0.01077913372620147</v>
       </c>
     </row>
     <row r="17">
@@ -1599,19 +1599,19 @@
         <v>8094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3633</v>
+        <v>3594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15006</v>
+        <v>13797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01610758264382676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007230598002809448</v>
+        <v>0.007151925965693604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02986454548353293</v>
+        <v>0.02745868962420548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1620,19 +1620,19 @@
         <v>8696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4211</v>
+        <v>4231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16955</v>
+        <v>17290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01284825081611815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006221519777470142</v>
+        <v>0.006251013134590166</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02505000575282022</v>
+        <v>0.02554508757334463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1641,19 +1641,19 @@
         <v>16790</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10447</v>
+        <v>10303</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25946</v>
+        <v>25821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01423694947603945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008858162210160983</v>
+        <v>0.008736083288452233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02200145422899554</v>
+        <v>0.02189516891272558</v>
       </c>
     </row>
     <row r="18">
@@ -1670,19 +1670,19 @@
         <v>492548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>484449</v>
+        <v>486132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>497214</v>
+        <v>497134</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9802615372961118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9641422800938788</v>
+        <v>0.967492123220223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9895482156228261</v>
+        <v>0.9893873449657176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>648</v>
@@ -1691,19 +1691,19 @@
         <v>663783</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>654554</v>
+        <v>654809</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>670238</v>
+        <v>669963</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9807054768759151</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9670700562150728</v>
+        <v>0.9674472432768692</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9902425103068391</v>
+        <v>0.9898367963869905</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1160</v>
@@ -1712,19 +1712,19 @@
         <v>1156331</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1145857</v>
+        <v>1145656</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1164318</v>
+        <v>1164511</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9805163282000062</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9716347267760019</v>
+        <v>0.9714644809106923</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9872891021079236</v>
+        <v>0.9874531378608046</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>5146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2038</v>
+        <v>2001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11914</v>
+        <v>11172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01241863570246884</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004918759381179775</v>
+        <v>0.004828702028968026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02875070169570625</v>
+        <v>0.02696054564492756</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2076,19 +2076,19 @@
         <v>9673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4280</v>
+        <v>4363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17387</v>
+        <v>17532</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0152440086099074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0067451467667156</v>
+        <v>0.006875757458824583</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02740110855793751</v>
+        <v>0.02762909915946936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2097,19 +2097,19 @@
         <v>14819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8402</v>
+        <v>8271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23167</v>
+        <v>23288</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01412780984864028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008010056779302343</v>
+        <v>0.007884761051116251</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02208601214551531</v>
+        <v>0.02220119377910761</v>
       </c>
     </row>
     <row r="5">
@@ -2126,19 +2126,19 @@
         <v>10761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4334</v>
+        <v>5198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22032</v>
+        <v>21101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02596822856833263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01045849264365867</v>
+        <v>0.01254238700413256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0531665054099288</v>
+        <v>0.05091937881679462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2147,19 +2147,19 @@
         <v>18589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11034</v>
+        <v>10209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30469</v>
+        <v>29536</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02929544597699004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01738809003893062</v>
+        <v>0.01608802381920893</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04801777756636971</v>
+        <v>0.04654722125057513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -2168,19 +2168,19 @@
         <v>29350</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19512</v>
+        <v>19383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44119</v>
+        <v>43601</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02798098729430354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01860112967482536</v>
+        <v>0.01847847521985733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04206053981095187</v>
+        <v>0.04156692889813014</v>
       </c>
     </row>
     <row r="6">
@@ -2197,19 +2197,19 @@
         <v>398491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>388129</v>
+        <v>387789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>405948</v>
+        <v>406006</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9616131357291985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9366095425039026</v>
+        <v>0.9357878409814229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.979607906759306</v>
+        <v>0.9797496760123944</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>571</v>
@@ -2218,19 +2218,19 @@
         <v>606283</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>593286</v>
+        <v>594119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>615556</v>
+        <v>615722</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9554605454131025</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9349783097061871</v>
+        <v>0.9362920945288828</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9700749572126675</v>
+        <v>0.9703356941107815</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>936</v>
@@ -2239,19 +2239,19 @@
         <v>1004772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>988404</v>
+        <v>988306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1017882</v>
+        <v>1017123</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9578912028570562</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9422868242818149</v>
+        <v>0.9421930674687257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9703892509617869</v>
+        <v>0.9696655883233011</v>
       </c>
     </row>
     <row r="7">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2385,19 +2385,19 @@
         <v>3416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9159</v>
+        <v>9513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0169333130785138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0049077224768388</v>
+        <v>0.004950610507990549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04540108701278062</v>
+        <v>0.04715537706230918</v>
       </c>
     </row>
     <row r="9">
@@ -2414,19 +2414,19 @@
         <v>3098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8560</v>
+        <v>7930</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02611055447911041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00812041228957734</v>
+        <v>0.007986281273781239</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0721360094353911</v>
+        <v>0.06682342818289851</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4196</v>
+        <v>4988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01187426998961538</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05051419790682651</v>
+        <v>0.06004773063903061</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -2456,19 +2456,19 @@
         <v>4085</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>987</v>
+        <v>1035</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10109</v>
+        <v>10082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02024817736084513</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004892145950192345</v>
+        <v>0.005128026032593504</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05011029957160244</v>
+        <v>0.04997414505637053</v>
       </c>
     </row>
     <row r="10">
@@ -2485,19 +2485,19 @@
         <v>114574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108892</v>
+        <v>109107</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117550</v>
+        <v>117620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9655287801210009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9176458105850797</v>
+        <v>0.9194559737736112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9906078329388528</v>
+        <v>0.9911930954432803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2506,19 +2506,19 @@
         <v>79664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73433</v>
+        <v>73758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82103</v>
+        <v>82086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9589471184567301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8839452778673058</v>
+        <v>0.8878573533798396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9883145824851054</v>
+        <v>0.9881027730328887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>175</v>
@@ -2527,19 +2527,19 @@
         <v>194238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186737</v>
+        <v>186456</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198617</v>
+        <v>198518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9628185095606411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.925636690885532</v>
+        <v>0.9242415115855805</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9845259229351816</v>
+        <v>0.9840341423961722</v>
       </c>
     </row>
     <row r="11">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="14">
@@ -2754,7 +2754,7 @@
         <v>21146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22246</v>
@@ -2763,7 +2763,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>47721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42972</v>
+        <v>43035</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>48821</v>
@@ -2784,7 +2784,7 @@
         <v>0.9774773962486789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801900104656916</v>
+        <v>0.8814908744658403</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2879,19 +2879,19 @@
         <v>6138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2966</v>
+        <v>2069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13330</v>
+        <v>12321</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01096848490119195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005299994504862984</v>
+        <v>0.003697893221933146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02381866449756179</v>
+        <v>0.02201656591090905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2900,19 +2900,19 @@
         <v>12097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6386</v>
+        <v>6345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22444</v>
+        <v>21224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01635027955521911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00863073992167838</v>
+        <v>0.008576234098229319</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03033505847378836</v>
+        <v>0.02868595855735275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -2921,19 +2921,19 @@
         <v>18235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10886</v>
+        <v>10939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28426</v>
+        <v>28326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01403258274358457</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008376855520799436</v>
+        <v>0.008417705358512981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02187484978102021</v>
+        <v>0.02179730683891803</v>
       </c>
     </row>
     <row r="17">
@@ -2950,19 +2950,19 @@
         <v>13860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7420</v>
+        <v>7535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24340</v>
+        <v>25538</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02476529535231574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01325787687762773</v>
+        <v>0.01346425412092368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04349241851146981</v>
+        <v>0.04563286234928123</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -2971,19 +2971,19 @@
         <v>20675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12450</v>
+        <v>12315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32758</v>
+        <v>31324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02794466796181906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01682729133047844</v>
+        <v>0.0166443072352857</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04427497910104881</v>
+        <v>0.04233730786969075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -2992,19 +2992,19 @@
         <v>34535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24148</v>
+        <v>23219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49769</v>
+        <v>49445</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02657545523005308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01858266856299576</v>
+        <v>0.0178672405899392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0382987291384624</v>
+        <v>0.03804902571509514</v>
       </c>
     </row>
     <row r="18">
@@ -3021,19 +3021,19 @@
         <v>539639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>528963</v>
+        <v>527851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>547348</v>
+        <v>547199</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9642662197464923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9451901298596301</v>
+        <v>0.9432018923058232</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9780406281469549</v>
+        <v>0.9777753438279506</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>662</v>
@@ -3042,19 +3042,19 @@
         <v>707093</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>692198</v>
+        <v>692702</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>717472</v>
+        <v>717976</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9557050524829618</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9355734299018391</v>
+        <v>0.9362552281198481</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9697332144123965</v>
+        <v>0.9704154417600946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1149</v>
@@ -3063,19 +3063,19 @@
         <v>1246732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1229188</v>
+        <v>1229679</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1259974</v>
+        <v>1260266</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9593919620263623</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9458912484212404</v>
+        <v>0.9462696141103664</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9695820494901379</v>
+        <v>0.9698069568194932</v>
       </c>
     </row>
     <row r="19">
@@ -3419,19 +3419,19 @@
         <v>9353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4485</v>
+        <v>3915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19914</v>
+        <v>19520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01685945189779001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008084572927769627</v>
+        <v>0.007057727797823625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03589739409383357</v>
+        <v>0.03518616237878184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3440,19 +3440,19 @@
         <v>9353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3772</v>
+        <v>3822</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19066</v>
+        <v>18113</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01029308394739094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004150781843518801</v>
+        <v>0.004205877368473903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02098311120468669</v>
+        <v>0.01993341202967541</v>
       </c>
     </row>
     <row r="5">
@@ -3469,19 +3469,19 @@
         <v>8581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4298</v>
+        <v>4216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15791</v>
+        <v>15281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02424718863565511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01214371258686204</v>
+        <v>0.01191411759592751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04461926216196677</v>
+        <v>0.04317850867111962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3490,19 +3490,19 @@
         <v>18243</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10861</v>
+        <v>10083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28731</v>
+        <v>29614</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03288477810302784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01957835799094109</v>
+        <v>0.01817602432000991</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05179046535269537</v>
+        <v>0.05338230283323181</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3511,19 +3511,19 @@
         <v>26824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17728</v>
+        <v>16992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39000</v>
+        <v>38928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02952063607806109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01950988574303254</v>
+        <v>0.01870034037178564</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04292090057825333</v>
+        <v>0.04284095708797359</v>
       </c>
     </row>
     <row r="6">
@@ -3540,19 +3540,19 @@
         <v>345320</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>338110</v>
+        <v>338620</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>349603</v>
+        <v>349685</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9757528113643449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9553807378380333</v>
+        <v>0.9568214913288804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9878562874131379</v>
+        <v>0.9880858824040725</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>450</v>
@@ -3561,19 +3561,19 @@
         <v>527161</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>513844</v>
+        <v>512638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>537122</v>
+        <v>537233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9502557699991822</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9262502028346404</v>
+        <v>0.9240767727593643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9682112169482576</v>
+        <v>0.96841100121367</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>826</v>
@@ -3582,19 +3582,19 @@
         <v>872481</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>857974</v>
+        <v>858112</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>883075</v>
+        <v>884404</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.960186279974548</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.944220894085077</v>
+        <v>0.9443732020521107</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9718458043096969</v>
+        <v>0.9733078298169335</v>
       </c>
     </row>
     <row r="7">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4594</v>
+        <v>4605</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004736044500552087</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02386161906423149</v>
+        <v>0.02391967095832467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5806</v>
+        <v>4569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002395758612476874</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01525535894219707</v>
+        <v>0.01200381535217431</v>
       </c>
     </row>
     <row r="9">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6058</v>
+        <v>6163</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01053400331500525</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03220856186874908</v>
+        <v>0.03276939803166858</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7948</v>
+        <v>7059</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005205309895244968</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02088258995892618</v>
+        <v>0.01854622932206852</v>
       </c>
     </row>
     <row r="10">
@@ -3812,7 +3812,7 @@
         <v>191620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187938</v>
+        <v>187927</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>192532</v>
@@ -3821,7 +3821,7 @@
         <v>0.9952639554994479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9761383809357684</v>
+        <v>0.9760803290416753</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>186093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182016</v>
+        <v>181911</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>188074</v>
@@ -3842,7 +3842,7 @@
         <v>0.9894659966849948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9677914381312509</v>
+        <v>0.9672306019683314</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3854,19 +3854,19 @@
         <v>377713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371977</v>
+        <v>372855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379684</v>
+        <v>379703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9923989314922782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.977327415021442</v>
+        <v>0.9796341173072053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.997578372505357</v>
+        <v>0.9976274694264441</v>
       </c>
     </row>
     <row r="11">
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="14">
@@ -4081,7 +4081,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4090,7 +4090,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>74327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68628</v>
+        <v>67197</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4111,7 +4111,7 @@
         <v>0.9818266299070227</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9065389884396623</v>
+        <v>0.8876363208473859</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5028</v>
+        <v>4572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001549529907520442</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00854449651971113</v>
+        <v>0.007769509179512334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4227,19 +4227,19 @@
         <v>9353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3762</v>
+        <v>3777</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19388</v>
+        <v>18739</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01204486303233222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004844592519855267</v>
+        <v>0.004864096502585596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02496775832498467</v>
+        <v>0.02413296944818794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4248,19 +4248,19 @@
         <v>10265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4396</v>
+        <v>4681</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19522</v>
+        <v>20744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007520131498720891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003220847261948869</v>
+        <v>0.003429068219272962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01430181918484403</v>
+        <v>0.01519745697826071</v>
       </c>
     </row>
     <row r="17">
@@ -4277,19 +4277,19 @@
         <v>8581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4254</v>
+        <v>4102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15157</v>
+        <v>14989</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0145822581316987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007228981184688975</v>
+        <v>0.006971093507710876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02575616333542254</v>
+        <v>0.02547171339538654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4298,19 +4298,19 @@
         <v>21600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12639</v>
+        <v>13557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33721</v>
+        <v>34726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02781696397571169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01627648535899901</v>
+        <v>0.0174595293626546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04342600165990429</v>
+        <v>0.04472047648988278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -4319,19 +4319,19 @@
         <v>30181</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20360</v>
+        <v>19725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43843</v>
+        <v>42878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02211123837764501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01491580551636516</v>
+        <v>0.014451092171701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03212012643701176</v>
+        <v>0.03141353840330737</v>
       </c>
     </row>
     <row r="18">
@@ -4348,19 +4348,19 @@
         <v>578970</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>572054</v>
+        <v>572127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>583360</v>
+        <v>583397</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9838682119607809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9721160371206969</v>
+        <v>0.9722399329073527</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9913288005535188</v>
+        <v>0.9913918752017475</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>630</v>
@@ -4369,19 +4369,19 @@
         <v>745552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>731628</v>
+        <v>731143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>756471</v>
+        <v>756311</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9601381729919561</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9422059106879691</v>
+        <v>0.9415815088628865</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9741993659638921</v>
+        <v>0.9739943119889999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1243</v>
@@ -4390,19 +4390,19 @@
         <v>1324522</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1308499</v>
+        <v>1308690</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1336443</v>
+        <v>1336260</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9703686301236341</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9586297391554102</v>
+        <v>0.9587697486201782</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9791017653028403</v>
+        <v>0.978968063380385</v>
       </c>
     </row>
     <row r="19">
@@ -4733,19 +4733,19 @@
         <v>2113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4772</v>
+        <v>4446</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.007285325947108946</v>
+        <v>0.00728532594710895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002346687659818893</v>
+        <v>0.002371097275116463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01644942683887034</v>
+        <v>0.01532591006905081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4754,19 +4754,19 @@
         <v>7258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4145</v>
+        <v>4093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12524</v>
+        <v>11962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01347125870438592</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007692467340668397</v>
+        <v>0.007595885838051744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02324490245850761</v>
+        <v>0.02220104826522028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -4775,19 +4775,19 @@
         <v>9371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5830</v>
+        <v>5511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14440</v>
+        <v>14818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01130626729454024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007033403514817486</v>
+        <v>0.00664915642109039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01742121731409174</v>
+        <v>0.01787778373948952</v>
       </c>
     </row>
     <row r="5">
@@ -4804,19 +4804,19 @@
         <v>4192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1941</v>
+        <v>1924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8374</v>
+        <v>8035</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01445062322919162</v>
+        <v>0.01445062322919163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00669075839518309</v>
+        <v>0.006631910839978338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0288656105360588</v>
+        <v>0.02769859014010257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -4825,19 +4825,19 @@
         <v>19933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14095</v>
+        <v>13675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28112</v>
+        <v>28260</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0369969280162331</v>
+        <v>0.03699692801623311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02616015973452214</v>
+        <v>0.02538193900367327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05217736383251128</v>
+        <v>0.05245163256510235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -4846,19 +4846,19 @@
         <v>24125</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17171</v>
+        <v>17407</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32993</v>
+        <v>33158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02910603134745096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02071618669845757</v>
+        <v>0.02100051580719153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03980441128483363</v>
+        <v>0.04000415475566215</v>
       </c>
     </row>
     <row r="6">
@@ -4875,19 +4875,19 @@
         <v>283790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>279927</v>
+        <v>279634</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286706</v>
+        <v>286778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9782640508236993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9649499334549432</v>
+        <v>0.963939427827737</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9883161419700257</v>
+        <v>0.988566121718927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>968</v>
@@ -4896,19 +4896,19 @@
         <v>511590</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>502075</v>
+        <v>502860</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>518239</v>
+        <v>519053</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9495318132793809</v>
+        <v>0.949531813279381</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9318719812786779</v>
+        <v>0.9333284543400958</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9618724850886124</v>
+        <v>0.9633845951028407</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1383</v>
@@ -4917,19 +4917,19 @@
         <v>795379</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>786166</v>
+        <v>785597</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>803370</v>
+        <v>803384</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9595877013580089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9484721736290723</v>
+        <v>0.9477855584657541</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9692278593461415</v>
+        <v>0.9692447340637316</v>
       </c>
     </row>
     <row r="7">
@@ -5024,16 +5024,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3692</v>
+        <v>3101</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.00200734078074339</v>
+        <v>0.002007340780743391</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0121513125768131</v>
+        <v>0.01020609067917358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3108</v>
+        <v>2983</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003166506312609744</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01119412371316189</v>
+        <v>0.01074338431737889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -5063,19 +5063,19 @@
         <v>1489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4169</v>
+        <v>4244</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00256082920218221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0007244183240229569</v>
+        <v>0.000727556445635893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.007170027216737547</v>
+        <v>0.007299413728491423</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>4222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9297</v>
+        <v>9441</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01389563977166009</v>
+        <v>0.0138956397716601</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005397657374172122</v>
+        <v>0.00540084073107332</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03060112909544994</v>
+        <v>0.03107327256333264</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -5113,19 +5113,19 @@
         <v>5652</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3180</v>
+        <v>2828</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10411</v>
+        <v>10396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02035695557343563</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01145340955501302</v>
+        <v>0.01018718146086893</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03749620441735072</v>
+        <v>0.03744279121211744</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -5134,19 +5134,19 @@
         <v>9874</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5752</v>
+        <v>5672</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16445</v>
+        <v>16191</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0169808449345365</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0098926233790295</v>
+        <v>0.009754036985429558</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02828137428815721</v>
+        <v>0.02784516864804335</v>
       </c>
     </row>
     <row r="10">
@@ -5163,19 +5163,19 @@
         <v>298993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>293454</v>
+        <v>293910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>301699</v>
+        <v>301916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9840970194475964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9658650930198207</v>
+        <v>0.9673647283797063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9930009397000311</v>
+        <v>0.9937183767049473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>516</v>
@@ -5184,19 +5184,19 @@
         <v>271115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>266212</v>
+        <v>266352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>273922</v>
+        <v>274318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9764765381139545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9588163608325254</v>
+        <v>0.9593210168096135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9865866604419391</v>
+        <v>0.9880122288255462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>935</v>
@@ -5205,19 +5205,19 @@
         <v>570108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563335</v>
+        <v>563331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>574347</v>
+        <v>574802</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9804583258632814</v>
+        <v>0.9804583258632812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9688100523609109</v>
+        <v>0.9688027936569414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9877478392540485</v>
+        <v>0.9885311173346762</v>
       </c>
     </row>
     <row r="11">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3876</v>
+        <v>4309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01060060533503513</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03260097411227634</v>
+        <v>0.03625004747525151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4374</v>
+        <v>4402</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00624682200629752</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02168381063219725</v>
+        <v>0.02182065532980606</v>
       </c>
     </row>
     <row r="14">
@@ -5419,7 +5419,7 @@
         <v>117621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115005</v>
+        <v>114572</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>118881</v>
@@ -5428,7 +5428,7 @@
         <v>0.989399394664965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9673990258877238</v>
+        <v>0.9637499525247488</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>200476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197362</v>
+        <v>197334</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>201736</v>
@@ -5462,7 +5462,7 @@
         <v>0.9937531779937026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9783161893678024</v>
+        <v>0.978179344670194</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5557,19 +5557,19 @@
         <v>2723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>950</v>
+        <v>1075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5722</v>
+        <v>5861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003820586120174594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001332133649180754</v>
+        <v>0.001507438063034226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00802813831034214</v>
+        <v>0.008222531103206487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -5578,19 +5578,19 @@
         <v>8137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12991</v>
+        <v>12622</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009048578952841054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005095721017743126</v>
+        <v>0.00509023601944406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01444558421955162</v>
+        <v>0.0140354502605119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5599,19 +5599,19 @@
         <v>10861</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7081</v>
+        <v>7158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16511</v>
+        <v>16411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006736961124955385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004392414828533691</v>
+        <v>0.004440296725305678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01024211393536496</v>
+        <v>0.0101798247245336</v>
       </c>
     </row>
     <row r="17">
@@ -5628,19 +5628,19 @@
         <v>9674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5801</v>
+        <v>5776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16169</v>
+        <v>15322</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01357196098808626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008138817575327983</v>
+        <v>0.008102572502121177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0226831455976397</v>
+        <v>0.02149591609454638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -5649,19 +5649,19 @@
         <v>25585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19128</v>
+        <v>18585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34816</v>
+        <v>35226</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02845076711720053</v>
+        <v>0.02845076711720054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02127021876414145</v>
+        <v>0.02066624526453836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03871508008032305</v>
+        <v>0.03917095111687499</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -5670,19 +5670,19 @@
         <v>35259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26949</v>
+        <v>26641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45248</v>
+        <v>45619</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02187192995988697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01671658466392051</v>
+        <v>0.01652571025626541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02806788555105</v>
+        <v>0.02829822378110471</v>
       </c>
     </row>
     <row r="18">
@@ -5699,19 +5699,19 @@
         <v>700404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>693516</v>
+        <v>694031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>704742</v>
+        <v>704791</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9826074528917391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9729446885866061</v>
+        <v>0.9736679145309775</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9886938928043255</v>
+        <v>0.9887620309271496</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1636</v>
@@ -5720,19 +5720,19 @@
         <v>865560</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>854988</v>
+        <v>855004</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>873170</v>
+        <v>872751</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9625006539299584</v>
+        <v>0.9625006539299583</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9507451755440731</v>
+        <v>0.9507628761823909</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9709634114556774</v>
+        <v>0.9704979017188451</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2636</v>
@@ -5741,19 +5741,19 @@
         <v>1565963</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1553735</v>
+        <v>1554509</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1575064</v>
+        <v>1575480</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9713911089151576</v>
+        <v>0.9713911089151578</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9638059579274401</v>
+        <v>0.9642858357980469</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.977036816454225</v>
+        <v>0.9772948972853892</v>
       </c>
     </row>
     <row r="19">
